--- a/BalanceSheet/ADSK_bal.xlsx
+++ b/BalanceSheet/ADSK_bal.xlsx
@@ -1886,19 +1886,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>87300000.0</v>
+        <v>123000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>85100000.0</v>
+        <v>121000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>111800000.0</v>
+        <v>99000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-154600000.0</v>
+        <v>85000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3400000.0</v>
+        <v>84000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>106100000.0</v>
@@ -3142,19 +3142,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-791600000.0</v>
+        <v>-752000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-1500000.0</v>
+        <v>41000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>11000000.0</v>
+        <v>38000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>3500000.0</v>
+        <v>30000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-37600000.0</v>
+        <v>26000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>103800000.0</v>
